--- a/google/queries.xlsx
+++ b/google/queries.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Rajat\Public\Rossmann\google\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5130746-F8B2-4F1D-AD38-F5C71779DA8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="5 Dec 2018" sheetId="2" r:id="rId2"/>
+    <sheet name="6 Dec 2018" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>How to make grouper and axis the same length?</t>
   </si>
@@ -29,18 +35,117 @@
 col_name = 'State'
 for name, group in df.groupby([col_name]):</t>
   </si>
+  <si>
+    <t>use 2 conditions on dataframe</t>
+  </si>
+  <si>
+    <r>
+      <t>df1 = df[(df.a != -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7D2727"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303336"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>) &amp; (df.b != -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7D2727"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303336"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df2 = df[(df.a != -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7D2727"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303336"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>) | (df.b != -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7D2727"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303336"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/22591174/pandas-multiple-conditions-while-indexing-data-frame-unexpected-behavior</t>
+  </si>
+  <si>
+    <t>Rossmann</t>
+  </si>
+  <si>
+    <t>how to find index of series</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/18327624/find-elements-index-in-pandas-series</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303336"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7D2727"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,10 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -77,6 +185,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -125,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -158,9 +269,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,6 +321,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -368,53 +513,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="165">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="75">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>